--- a/data/trans_orig/P22$ss-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P22$ss-Clase-trans_orig.xlsx
@@ -4696,7 +4696,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -10503,7 +10503,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -16310,7 +16310,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -22117,7 +22117,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
